--- a/tests/integration/inputs/convert_and_import_excel_file/test.xlsx
+++ b/tests/integration/inputs/convert_and_import_excel_file/test.xlsx
@@ -1025,7 +1025,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="114">
   <si>
     <t xml:space="preserve">Code-barres</t>
   </si>
@@ -1360,7 +1360,13 @@
     <t xml:space="preserve">Some product without an org name</t>
   </si>
   <si>
+    <t xml:space="preserve">Product will not be imported</t>
+  </si>
+  <si>
     <t xml:space="preserve">Some product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some product without a brand</t>
   </si>
 </sst>
 </file>
@@ -1567,13 +1573,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ5"/>
+  <dimension ref="A1:BJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="33.71"/>
@@ -2021,8 +2027,28 @@
       <c r="C5" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>111</v>
+      </c>
       <c r="F5" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>7270190128403</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>111</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
